--- a/总结/设计模式/设计模式.xlsx
+++ b/总结/设计模式/设计模式.xlsx
@@ -16,400 +16,394 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="94">
   <si>
     <t>工厂模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>创建对象,知其名即可;增加产品,仅扩展一个工厂类;调用者只需关心产品的接口。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>增加了系统的复杂度，同时也增加了系统具体类的依赖</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>模式名称</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>意图</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>解决问题</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>何时使用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>如何解决</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>优点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>缺点</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>使用场景</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>子类选择工厂实例化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>接口选择</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>不同条件使用不同实例</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>工厂返回抽象实例</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>抽象工厂模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>相互依赖对象的工厂实例化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>只消费系统某一族的产品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>产品族里定义多个产品</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>保证调用者始终只使用同一个产品族中的对象</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、日志记录。2、数据库访问。3、设计连接服务器框架（选择协议pop3、imap、http共同实现一个接口）。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建一个全局单例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展非常困难</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> 1、QQ 换皮肤，一整套一起换。 2、生成不同操作系统的程序。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>把复杂的构建与表示分离</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>原型模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>利用原型深拷贝</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>反复重写方法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>通用的方法</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>每一个实现都需要一个子类，导致类的个数增加，使得系统更加庞大。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>应用程序分层开发</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>不兼容接口的桥梁</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>需要却不适配</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承或依赖</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、让没有关联的类一起运行。 2、提高了类的复用。 3、增加了类的透明度。 4、灵活性好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、会让系统变的凌乱。2、只能单继承。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、不是在系统详细设计时使用，是在解决正在服役的项目。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>使算法可以相互替换</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>if else的复杂</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为行为产生了很多类</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>共同继承一个接口</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、算法可以自由切换。 2、避免使用多重条件判断。 3、扩展性良好。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、策略类会增多。 2、所有策略类都需要对外暴露。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、需要动态选择算法。 2、行为使用多重的条件选择语句。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1、降低耦合。2、可维护性高。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥接模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离抽象化和实现化</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>设计模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>创建型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>行为型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>模板模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>结构型</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>继承类爆炸</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>系统的每个实现的角度会改变</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>分离，降低耦合</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：解耦。2：优秀的扩展。3：实现细节对客户透明。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：会增加对系统设计理解难度。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>1：一个类在两个维度的变化。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>单例模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>一个类只有一个实例</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>类的频繁使用</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>控制实例化数目，节省系统资源</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建一个全局单例</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、减少了内存的开销。2、避免对资源的多重占用。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>扩展非常困难</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 1、QQ 换皮肤，一整套一起换。 2、生成不同操作系统的程序。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>没有接口，不能继承</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>单例模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>一个类只有一个实例</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>类的频繁使用</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、要求生产唯一序列号。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>建造者模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>把复杂的构建与表示分离</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>过度耦合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>部件不变，组合发生变化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>将变与不变分开</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t> 1、建造者独立，易扩展。 2、便于控制细节风险。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t> 1、产品必须有共同点，范围限制。 2、内部变化复杂，有很多的建造类。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t> 1、需要生成的对象具有复杂的内部结构。 2、需要生成的对象内部属性本身相互依赖。</t>
-  </si>
-  <si>
-    <t>原型模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>通过原型创建新的对象</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>创建和删除原型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>动态装载</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>利用原型深拷贝</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、性能提高。 2、逃避构造函数的约束。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、需要对类的功能进行通盘考虑。2、必须实现 Cloneable 接口。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、一个对象多个修改者的场景。 2、一个对象需要提供给其他对象访问。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>只改变结构内容对整体无影响</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>反复重写方法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>通用的方法</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>把方法抽象出来</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、封装不变，扩展可变部分。 2、提取公共代码，便于维护。 3、行为由父类控制，子类实现。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>每一个实现都需要一个子类，导致类的个数增加，使得系统更加庞大。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t> 1、有多个子类共有的方法，且逻辑相同。 2、重要的、复杂的方法，可以考虑作为模板方法。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中介者模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>降低耦合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>类相互耦合形成了网状结构</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>网状结构转星型结构</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、降低了类的复杂度，将一对多转化成了一对一。 2、各个类之间的解耦。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>中介者会庞大，变得复杂难以维护。</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>1、系统中对象之间存在比较复杂的引用关系。 2、通过一个中间类封装多个类，又不想生成太多的子类。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>适配器模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>移植环境</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>策略模式</t>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MVC模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>应用程序分层开发</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
     <t>MVC</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>适配器模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>策略模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>不兼容接口的桥梁</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>移植环境</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>需要却不适配</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>继承或依赖</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、让没有关联的类一起运行。 2、提高了类的复用。 3、增加了类的透明度。 4、灵活性好。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、会让系统变的凌乱。2、只能单继承。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、不是在系统详细设计时使用，是在解决正在服役的项目。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>使算法可以相互替换</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>if else的复杂</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>因为行为产生了很多类</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>共同继承一个接口</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、算法可以自由切换。 2、避免使用多重条件判断。 3、扩展性良好。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、策略类会增多。 2、所有策略类都需要对外暴露。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、需要动态选择算法。 2、行为使用多重的条件选择语句。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1、降低耦合。2、可维护性高。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>桥接模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>分离抽象化和实现化</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>创建型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>模板模式</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>行为型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>结构型</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>继承类爆炸</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>系统的每个实现的角度会改变</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>分离，降低耦合</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：解耦。2：优秀的扩展。3：实现细节对客户透明。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：会增加对系统设计理解难度。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>1：一个类在两个维度的变化。</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="10">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -596,65 +590,56 @@
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="3" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="4" xfId="2" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -665,32 +650,23 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="3" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -996,15 +972,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I473"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G9" sqref="G9"/>
+      <selection pane="bottomLeft" activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="34.5" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="13.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.5546875" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="29.21875" style="7" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.109375" style="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.44140625" style="7" bestFit="1" customWidth="1"/>
@@ -1019,8 +995,8 @@
       <c r="A1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="22" t="s">
-        <v>83</v>
+      <c r="B1" s="17" t="s">
+        <v>47</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>4</v>
@@ -1048,8 +1024,8 @@
       <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="25" t="s">
-        <v>84</v>
+      <c r="B2" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>11</v>
@@ -1077,8 +1053,8 @@
       <c r="A3" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="23" t="s">
-        <v>84</v>
+      <c r="B3" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>16</v>
@@ -1096,289 +1072,285 @@
         <v>19</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1">
       <c r="A4" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="B4" s="25" t="s">
-        <v>84</v>
+        <v>58</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>28</v>
+        <v>59</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>29</v>
+        <v>60</v>
       </c>
       <c r="E4" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="1" t="s">
-        <v>22</v>
-      </c>
       <c r="G4" s="2" t="s">
-        <v>23</v>
+        <v>62</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>26</v>
+        <v>63</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>30</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:9" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="A5" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>84</v>
+        <v>65</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>48</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>33</v>
+        <v>66</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>35</v>
+        <v>68</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>37</v>
+        <v>70</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>38</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1">
       <c r="A6" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="B6" s="25" t="s">
-        <v>84</v>
+        <v>25</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>48</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>40</v>
+        <v>72</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>41</v>
+        <v>73</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>42</v>
+        <v>74</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="G6" s="2" t="s">
-        <v>44</v>
+        <v>75</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>45</v>
+        <v>76</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>46</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:9" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="A7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="G7" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="H7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A8" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B7" s="23" t="s">
+      <c r="H8" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C7" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E7" s="3" t="s">
+      <c r="I8" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" s="3" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A9" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A10" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>49</v>
       </c>
-      <c r="F7" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G7" s="4" t="s">
+      <c r="C10" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="H10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" s="3" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A11" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="B11" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="C11" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="F11" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B8" s="25" t="s">
-        <v>87</v>
-      </c>
-      <c r="C8" s="15" t="s">
+      <c r="G11" s="4" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="E8" s="15" t="s">
+      <c r="H11" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="I11" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="H8" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B9" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>71</v>
-      </c>
-      <c r="I9" s="19" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A10" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="B10" s="23" t="s">
-        <v>85</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="F10" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="G10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="I10" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A11" s="20" t="s">
-        <v>81</v>
-      </c>
-      <c r="B11" s="25" t="s">
-        <v>88</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>82</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>89</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="F11" s="21" t="s">
-        <v>91</v>
-      </c>
-      <c r="G11" s="28" t="s">
+    </row>
+    <row r="12" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1">
+      <c r="A12" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="B12" s="20"/>
+      <c r="C12" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="I11" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" s="3" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A12" s="11" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="23"/>
-      <c r="C12" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="H12" s="4"/>
-      <c r="I12" s="4"/>
+      <c r="G12" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="H12" s="2"/>
+      <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:9" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="A13" s="11"/>
-      <c r="B13" s="23"/>
+      <c r="B13" s="18"/>
       <c r="G13" s="4"/>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
     <row r="14" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="24"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="20"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
-      <c r="I14" s="16"/>
+      <c r="I14" s="2"/>
     </row>
     <row r="15" spans="1:9" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="A15" s="11"/>
-      <c r="B15" s="23"/>
+      <c r="B15" s="18"/>
       <c r="G15" s="4"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
     <row r="16" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1">
       <c r="A16" s="14"/>
-      <c r="B16" s="24"/>
+      <c r="B16" s="19"/>
       <c r="C16" s="15"/>
       <c r="D16" s="15"/>
       <c r="E16" s="15"/>
@@ -1389,14 +1361,14 @@
     </row>
     <row r="17" spans="1:9" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="A17" s="11"/>
-      <c r="B17" s="23"/>
+      <c r="B17" s="18"/>
       <c r="G17" s="4"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
     <row r="18" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1">
       <c r="A18" s="14"/>
-      <c r="B18" s="24"/>
+      <c r="B18" s="19"/>
       <c r="C18" s="15"/>
       <c r="D18" s="15"/>
       <c r="E18" s="15"/>
@@ -1407,14 +1379,14 @@
     </row>
     <row r="19" spans="1:9" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="A19" s="11"/>
-      <c r="B19" s="23"/>
+      <c r="B19" s="18"/>
       <c r="G19" s="4"/>
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
     <row r="20" spans="1:9" s="1" customFormat="1" ht="34.5" customHeight="1">
       <c r="A20" s="14"/>
-      <c r="B20" s="24"/>
+      <c r="B20" s="19"/>
       <c r="C20" s="15"/>
       <c r="D20" s="15"/>
       <c r="E20" s="15"/>
@@ -1425,14 +1397,14 @@
     </row>
     <row r="21" spans="1:9" s="3" customFormat="1" ht="34.5" customHeight="1">
       <c r="A21" s="11"/>
-      <c r="B21" s="23"/>
+      <c r="B21" s="18"/>
       <c r="G21" s="4"/>
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
     <row r="22" spans="1:9" ht="34.5" customHeight="1">
       <c r="A22" s="12"/>
-      <c r="B22" s="26"/>
+      <c r="B22" s="21"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
@@ -1443,7 +1415,7 @@
     </row>
     <row r="23" spans="1:9" ht="34.5" customHeight="1">
       <c r="A23" s="12"/>
-      <c r="B23" s="26"/>
+      <c r="B23" s="21"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
@@ -1454,7 +1426,7 @@
     </row>
     <row r="24" spans="1:9" ht="34.5" customHeight="1">
       <c r="A24" s="12"/>
-      <c r="B24" s="26"/>
+      <c r="B24" s="21"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
       <c r="E24" s="5"/>
@@ -1465,7 +1437,7 @@
     </row>
     <row r="25" spans="1:9" ht="34.5" customHeight="1">
       <c r="A25" s="12"/>
-      <c r="B25" s="26"/>
+      <c r="B25" s="21"/>
       <c r="C25" s="5"/>
       <c r="D25" s="5"/>
       <c r="E25" s="5"/>
@@ -1476,7 +1448,7 @@
     </row>
     <row r="26" spans="1:9" ht="34.5" customHeight="1">
       <c r="A26" s="12"/>
-      <c r="B26" s="26"/>
+      <c r="B26" s="21"/>
       <c r="C26" s="5"/>
       <c r="D26" s="5"/>
       <c r="E26" s="5"/>
@@ -1487,7 +1459,7 @@
     </row>
     <row r="27" spans="1:9" ht="34.5" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="26"/>
+      <c r="B27" s="21"/>
       <c r="C27" s="5"/>
       <c r="D27" s="5"/>
       <c r="E27" s="5"/>
@@ -1498,7 +1470,7 @@
     </row>
     <row r="28" spans="1:9" ht="34.5" customHeight="1">
       <c r="A28" s="12"/>
-      <c r="B28" s="26"/>
+      <c r="B28" s="21"/>
       <c r="C28" s="5"/>
       <c r="D28" s="5"/>
       <c r="E28" s="5"/>
@@ -1509,7 +1481,7 @@
     </row>
     <row r="29" spans="1:9" ht="34.5" customHeight="1">
       <c r="A29" s="12"/>
-      <c r="B29" s="26"/>
+      <c r="B29" s="21"/>
       <c r="C29" s="5"/>
       <c r="D29" s="5"/>
       <c r="E29" s="5"/>
@@ -1520,7 +1492,7 @@
     </row>
     <row r="30" spans="1:9" ht="34.5" customHeight="1">
       <c r="A30" s="12"/>
-      <c r="B30" s="26"/>
+      <c r="B30" s="21"/>
       <c r="C30" s="5"/>
       <c r="D30" s="5"/>
       <c r="E30" s="5"/>
@@ -1531,7 +1503,7 @@
     </row>
     <row r="31" spans="1:9" ht="34.5" customHeight="1">
       <c r="A31" s="12"/>
-      <c r="B31" s="26"/>
+      <c r="B31" s="21"/>
       <c r="C31" s="5"/>
       <c r="D31" s="5"/>
       <c r="E31" s="5"/>
@@ -1542,7 +1514,7 @@
     </row>
     <row r="32" spans="1:9" ht="34.5" customHeight="1">
       <c r="A32" s="12"/>
-      <c r="B32" s="26"/>
+      <c r="B32" s="21"/>
       <c r="C32" s="5"/>
       <c r="D32" s="5"/>
       <c r="E32" s="5"/>
@@ -1553,7 +1525,7 @@
     </row>
     <row r="33" spans="1:9" ht="34.5" customHeight="1">
       <c r="A33" s="12"/>
-      <c r="B33" s="26"/>
+      <c r="B33" s="21"/>
       <c r="C33" s="5"/>
       <c r="D33" s="5"/>
       <c r="E33" s="5"/>
@@ -1564,7 +1536,7 @@
     </row>
     <row r="34" spans="1:9" ht="34.5" customHeight="1">
       <c r="A34" s="12"/>
-      <c r="B34" s="26"/>
+      <c r="B34" s="21"/>
       <c r="C34" s="5"/>
       <c r="D34" s="5"/>
       <c r="E34" s="5"/>
@@ -1575,7 +1547,7 @@
     </row>
     <row r="35" spans="1:9" ht="34.5" customHeight="1">
       <c r="A35" s="12"/>
-      <c r="B35" s="26"/>
+      <c r="B35" s="21"/>
       <c r="C35" s="5"/>
       <c r="D35" s="5"/>
       <c r="E35" s="5"/>
@@ -1586,7 +1558,7 @@
     </row>
     <row r="36" spans="1:9" ht="34.5" customHeight="1">
       <c r="A36" s="12"/>
-      <c r="B36" s="26"/>
+      <c r="B36" s="21"/>
       <c r="C36" s="5"/>
       <c r="D36" s="5"/>
       <c r="E36" s="5"/>
@@ -1597,7 +1569,7 @@
     </row>
     <row r="37" spans="1:9" ht="34.5" customHeight="1">
       <c r="A37" s="12"/>
-      <c r="B37" s="26"/>
+      <c r="B37" s="21"/>
       <c r="C37" s="5"/>
       <c r="D37" s="5"/>
       <c r="E37" s="5"/>
@@ -1608,7 +1580,7 @@
     </row>
     <row r="38" spans="1:9" ht="34.5" customHeight="1">
       <c r="A38" s="12"/>
-      <c r="B38" s="26"/>
+      <c r="B38" s="21"/>
       <c r="C38" s="5"/>
       <c r="D38" s="5"/>
       <c r="E38" s="5"/>
@@ -1619,7 +1591,7 @@
     </row>
     <row r="39" spans="1:9" ht="34.5" customHeight="1">
       <c r="A39" s="12"/>
-      <c r="B39" s="26"/>
+      <c r="B39" s="21"/>
       <c r="C39" s="5"/>
       <c r="D39" s="5"/>
       <c r="E39" s="5"/>
@@ -1630,7 +1602,7 @@
     </row>
     <row r="40" spans="1:9" ht="34.5" customHeight="1">
       <c r="A40" s="12"/>
-      <c r="B40" s="26"/>
+      <c r="B40" s="21"/>
       <c r="C40" s="5"/>
       <c r="D40" s="5"/>
       <c r="E40" s="5"/>
@@ -1641,7 +1613,7 @@
     </row>
     <row r="41" spans="1:9" ht="34.5" customHeight="1">
       <c r="A41" s="12"/>
-      <c r="B41" s="26"/>
+      <c r="B41" s="21"/>
       <c r="C41" s="5"/>
       <c r="D41" s="5"/>
       <c r="E41" s="5"/>
@@ -1652,7 +1624,7 @@
     </row>
     <row r="42" spans="1:9" ht="34.5" customHeight="1">
       <c r="A42" s="12"/>
-      <c r="B42" s="26"/>
+      <c r="B42" s="21"/>
       <c r="C42" s="5"/>
       <c r="D42" s="5"/>
       <c r="E42" s="5"/>
@@ -1663,7 +1635,7 @@
     </row>
     <row r="43" spans="1:9" ht="34.5" customHeight="1">
       <c r="A43" s="12"/>
-      <c r="B43" s="26"/>
+      <c r="B43" s="21"/>
       <c r="C43" s="5"/>
       <c r="D43" s="5"/>
       <c r="E43" s="5"/>
@@ -1674,7 +1646,7 @@
     </row>
     <row r="44" spans="1:9" ht="34.5" customHeight="1">
       <c r="A44" s="12"/>
-      <c r="B44" s="26"/>
+      <c r="B44" s="21"/>
       <c r="C44" s="5"/>
       <c r="D44" s="5"/>
       <c r="E44" s="5"/>
@@ -1685,7 +1657,7 @@
     </row>
     <row r="45" spans="1:9" ht="34.5" customHeight="1">
       <c r="A45" s="12"/>
-      <c r="B45" s="26"/>
+      <c r="B45" s="21"/>
       <c r="C45" s="5"/>
       <c r="D45" s="5"/>
       <c r="E45" s="5"/>
@@ -1696,7 +1668,7 @@
     </row>
     <row r="46" spans="1:9" ht="34.5" customHeight="1">
       <c r="A46" s="12"/>
-      <c r="B46" s="26"/>
+      <c r="B46" s="21"/>
       <c r="C46" s="5"/>
       <c r="D46" s="5"/>
       <c r="E46" s="5"/>
@@ -1707,7 +1679,7 @@
     </row>
     <row r="47" spans="1:9" ht="34.5" customHeight="1">
       <c r="A47" s="12"/>
-      <c r="B47" s="26"/>
+      <c r="B47" s="21"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
       <c r="E47" s="5"/>
@@ -1718,7 +1690,7 @@
     </row>
     <row r="48" spans="1:9" ht="34.5" customHeight="1">
       <c r="A48" s="12"/>
-      <c r="B48" s="26"/>
+      <c r="B48" s="21"/>
       <c r="C48" s="5"/>
       <c r="D48" s="5"/>
       <c r="E48" s="5"/>
@@ -1729,7 +1701,7 @@
     </row>
     <row r="49" spans="1:9" ht="34.5" customHeight="1">
       <c r="A49" s="12"/>
-      <c r="B49" s="26"/>
+      <c r="B49" s="21"/>
       <c r="C49" s="5"/>
       <c r="D49" s="5"/>
       <c r="E49" s="5"/>
@@ -1740,7 +1712,7 @@
     </row>
     <row r="50" spans="1:9" ht="34.5" customHeight="1">
       <c r="A50" s="12"/>
-      <c r="B50" s="26"/>
+      <c r="B50" s="21"/>
       <c r="C50" s="5"/>
       <c r="D50" s="5"/>
       <c r="E50" s="5"/>
@@ -1751,7 +1723,7 @@
     </row>
     <row r="51" spans="1:9" ht="34.5" customHeight="1">
       <c r="A51" s="12"/>
-      <c r="B51" s="26"/>
+      <c r="B51" s="21"/>
       <c r="C51" s="5"/>
       <c r="D51" s="5"/>
       <c r="E51" s="5"/>
@@ -1762,7 +1734,7 @@
     </row>
     <row r="52" spans="1:9" ht="34.5" customHeight="1">
       <c r="A52" s="12"/>
-      <c r="B52" s="26"/>
+      <c r="B52" s="21"/>
       <c r="C52" s="5"/>
       <c r="D52" s="5"/>
       <c r="E52" s="5"/>
@@ -1773,7 +1745,7 @@
     </row>
     <row r="53" spans="1:9" ht="34.5" customHeight="1">
       <c r="A53" s="12"/>
-      <c r="B53" s="26"/>
+      <c r="B53" s="21"/>
       <c r="C53" s="5"/>
       <c r="D53" s="5"/>
       <c r="E53" s="5"/>
@@ -1784,7 +1756,7 @@
     </row>
     <row r="54" spans="1:9" ht="34.5" customHeight="1">
       <c r="A54" s="12"/>
-      <c r="B54" s="26"/>
+      <c r="B54" s="21"/>
       <c r="C54" s="5"/>
       <c r="D54" s="5"/>
       <c r="E54" s="5"/>
@@ -1795,7 +1767,7 @@
     </row>
     <row r="55" spans="1:9" ht="34.5" customHeight="1">
       <c r="A55" s="12"/>
-      <c r="B55" s="26"/>
+      <c r="B55" s="21"/>
       <c r="C55" s="5"/>
       <c r="D55" s="5"/>
       <c r="E55" s="5"/>
@@ -1806,7 +1778,7 @@
     </row>
     <row r="56" spans="1:9" ht="34.5" customHeight="1">
       <c r="A56" s="12"/>
-      <c r="B56" s="26"/>
+      <c r="B56" s="21"/>
       <c r="C56" s="5"/>
       <c r="D56" s="5"/>
       <c r="E56" s="5"/>
@@ -1817,7 +1789,7 @@
     </row>
     <row r="57" spans="1:9" ht="34.5" customHeight="1">
       <c r="A57" s="12"/>
-      <c r="B57" s="26"/>
+      <c r="B57" s="21"/>
       <c r="C57" s="5"/>
       <c r="D57" s="5"/>
       <c r="E57" s="5"/>
@@ -1828,7 +1800,7 @@
     </row>
     <row r="58" spans="1:9" ht="34.5" customHeight="1">
       <c r="A58" s="12"/>
-      <c r="B58" s="26"/>
+      <c r="B58" s="21"/>
       <c r="C58" s="5"/>
       <c r="D58" s="5"/>
       <c r="E58" s="5"/>
@@ -1839,7 +1811,7 @@
     </row>
     <row r="59" spans="1:9" ht="34.5" customHeight="1">
       <c r="A59" s="12"/>
-      <c r="B59" s="26"/>
+      <c r="B59" s="21"/>
       <c r="C59" s="5"/>
       <c r="D59" s="5"/>
       <c r="E59" s="5"/>
@@ -1850,7 +1822,7 @@
     </row>
     <row r="60" spans="1:9" ht="34.5" customHeight="1">
       <c r="A60" s="12"/>
-      <c r="B60" s="26"/>
+      <c r="B60" s="21"/>
       <c r="C60" s="5"/>
       <c r="D60" s="5"/>
       <c r="E60" s="5"/>
@@ -1861,7 +1833,7 @@
     </row>
     <row r="61" spans="1:9" ht="34.5" customHeight="1">
       <c r="A61" s="12"/>
-      <c r="B61" s="26"/>
+      <c r="B61" s="21"/>
       <c r="C61" s="5"/>
       <c r="D61" s="5"/>
       <c r="E61" s="5"/>
@@ -1872,7 +1844,7 @@
     </row>
     <row r="62" spans="1:9" ht="34.5" customHeight="1">
       <c r="A62" s="12"/>
-      <c r="B62" s="26"/>
+      <c r="B62" s="21"/>
       <c r="C62" s="5"/>
       <c r="D62" s="5"/>
       <c r="E62" s="5"/>
@@ -1883,7 +1855,7 @@
     </row>
     <row r="63" spans="1:9" ht="34.5" customHeight="1">
       <c r="A63" s="12"/>
-      <c r="B63" s="26"/>
+      <c r="B63" s="21"/>
       <c r="C63" s="5"/>
       <c r="D63" s="5"/>
       <c r="E63" s="5"/>
@@ -1894,7 +1866,7 @@
     </row>
     <row r="64" spans="1:9" ht="34.5" customHeight="1">
       <c r="A64" s="12"/>
-      <c r="B64" s="26"/>
+      <c r="B64" s="21"/>
       <c r="C64" s="5"/>
       <c r="D64" s="5"/>
       <c r="E64" s="5"/>
@@ -1905,7 +1877,7 @@
     </row>
     <row r="65" spans="1:9" ht="34.5" customHeight="1">
       <c r="A65" s="12"/>
-      <c r="B65" s="26"/>
+      <c r="B65" s="21"/>
       <c r="C65" s="5"/>
       <c r="D65" s="5"/>
       <c r="E65" s="5"/>
@@ -1916,7 +1888,7 @@
     </row>
     <row r="66" spans="1:9" ht="34.5" customHeight="1">
       <c r="A66" s="12"/>
-      <c r="B66" s="26"/>
+      <c r="B66" s="21"/>
       <c r="C66" s="5"/>
       <c r="D66" s="5"/>
       <c r="E66" s="5"/>
@@ -1927,7 +1899,7 @@
     </row>
     <row r="67" spans="1:9" ht="34.5" customHeight="1">
       <c r="A67" s="12"/>
-      <c r="B67" s="26"/>
+      <c r="B67" s="21"/>
       <c r="C67" s="5"/>
       <c r="D67" s="5"/>
       <c r="E67" s="5"/>
@@ -1938,7 +1910,7 @@
     </row>
     <row r="68" spans="1:9" ht="34.5" customHeight="1">
       <c r="A68" s="12"/>
-      <c r="B68" s="26"/>
+      <c r="B68" s="21"/>
       <c r="C68" s="5"/>
       <c r="D68" s="5"/>
       <c r="E68" s="5"/>
@@ -1949,7 +1921,7 @@
     </row>
     <row r="69" spans="1:9" ht="34.5" customHeight="1">
       <c r="A69" s="12"/>
-      <c r="B69" s="26"/>
+      <c r="B69" s="21"/>
       <c r="C69" s="5"/>
       <c r="D69" s="5"/>
       <c r="E69" s="5"/>
@@ -1960,7 +1932,7 @@
     </row>
     <row r="70" spans="1:9" ht="34.5" customHeight="1">
       <c r="A70" s="12"/>
-      <c r="B70" s="26"/>
+      <c r="B70" s="21"/>
       <c r="C70" s="5"/>
       <c r="D70" s="5"/>
       <c r="E70" s="5"/>
@@ -1971,7 +1943,7 @@
     </row>
     <row r="71" spans="1:9" ht="34.5" customHeight="1">
       <c r="A71" s="12"/>
-      <c r="B71" s="26"/>
+      <c r="B71" s="21"/>
       <c r="C71" s="5"/>
       <c r="D71" s="5"/>
       <c r="E71" s="5"/>
@@ -1982,7 +1954,7 @@
     </row>
     <row r="72" spans="1:9" ht="34.5" customHeight="1">
       <c r="A72" s="12"/>
-      <c r="B72" s="26"/>
+      <c r="B72" s="21"/>
       <c r="C72" s="5"/>
       <c r="D72" s="5"/>
       <c r="E72" s="5"/>
@@ -1993,7 +1965,7 @@
     </row>
     <row r="73" spans="1:9" ht="34.5" customHeight="1">
       <c r="A73" s="12"/>
-      <c r="B73" s="26"/>
+      <c r="B73" s="21"/>
       <c r="C73" s="5"/>
       <c r="D73" s="5"/>
       <c r="E73" s="5"/>
@@ -2004,7 +1976,7 @@
     </row>
     <row r="74" spans="1:9" ht="34.5" customHeight="1">
       <c r="A74" s="12"/>
-      <c r="B74" s="26"/>
+      <c r="B74" s="21"/>
       <c r="C74" s="5"/>
       <c r="D74" s="5"/>
       <c r="E74" s="5"/>
@@ -2015,7 +1987,7 @@
     </row>
     <row r="75" spans="1:9" ht="34.5" customHeight="1">
       <c r="A75" s="12"/>
-      <c r="B75" s="26"/>
+      <c r="B75" s="21"/>
       <c r="C75" s="5"/>
       <c r="D75" s="5"/>
       <c r="E75" s="5"/>
@@ -2026,7 +1998,7 @@
     </row>
     <row r="76" spans="1:9" ht="34.5" customHeight="1">
       <c r="A76" s="12"/>
-      <c r="B76" s="26"/>
+      <c r="B76" s="21"/>
       <c r="C76" s="5"/>
       <c r="D76" s="5"/>
       <c r="E76" s="5"/>
@@ -2037,7 +2009,7 @@
     </row>
     <row r="77" spans="1:9" ht="34.5" customHeight="1">
       <c r="A77" s="12"/>
-      <c r="B77" s="26"/>
+      <c r="B77" s="21"/>
       <c r="C77" s="5"/>
       <c r="D77" s="5"/>
       <c r="E77" s="5"/>
@@ -2048,7 +2020,7 @@
     </row>
     <row r="78" spans="1:9" ht="34.5" customHeight="1">
       <c r="A78" s="12"/>
-      <c r="B78" s="26"/>
+      <c r="B78" s="21"/>
       <c r="C78" s="5"/>
       <c r="D78" s="5"/>
       <c r="E78" s="5"/>
@@ -2059,7 +2031,7 @@
     </row>
     <row r="79" spans="1:9" ht="34.5" customHeight="1">
       <c r="A79" s="12"/>
-      <c r="B79" s="26"/>
+      <c r="B79" s="21"/>
       <c r="C79" s="5"/>
       <c r="D79" s="5"/>
       <c r="E79" s="5"/>
@@ -2070,7 +2042,7 @@
     </row>
     <row r="80" spans="1:9" ht="34.5" customHeight="1">
       <c r="A80" s="12"/>
-      <c r="B80" s="26"/>
+      <c r="B80" s="21"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
@@ -2081,7 +2053,7 @@
     </row>
     <row r="81" spans="1:9" ht="34.5" customHeight="1">
       <c r="A81" s="12"/>
-      <c r="B81" s="26"/>
+      <c r="B81" s="21"/>
       <c r="C81" s="5"/>
       <c r="D81" s="5"/>
       <c r="E81" s="5"/>
@@ -2092,7 +2064,7 @@
     </row>
     <row r="82" spans="1:9" ht="34.5" customHeight="1">
       <c r="A82" s="12"/>
-      <c r="B82" s="26"/>
+      <c r="B82" s="21"/>
       <c r="C82" s="5"/>
       <c r="D82" s="5"/>
       <c r="E82" s="5"/>
@@ -2103,7 +2075,7 @@
     </row>
     <row r="83" spans="1:9" ht="34.5" customHeight="1">
       <c r="A83" s="12"/>
-      <c r="B83" s="26"/>
+      <c r="B83" s="21"/>
       <c r="C83" s="5"/>
       <c r="D83" s="5"/>
       <c r="E83" s="5"/>
@@ -2114,7 +2086,7 @@
     </row>
     <row r="84" spans="1:9" ht="34.5" customHeight="1">
       <c r="A84" s="12"/>
-      <c r="B84" s="26"/>
+      <c r="B84" s="21"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
@@ -2125,7 +2097,7 @@
     </row>
     <row r="85" spans="1:9" ht="34.5" customHeight="1">
       <c r="A85" s="12"/>
-      <c r="B85" s="26"/>
+      <c r="B85" s="21"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
@@ -2136,7 +2108,7 @@
     </row>
     <row r="86" spans="1:9" ht="34.5" customHeight="1">
       <c r="A86" s="12"/>
-      <c r="B86" s="26"/>
+      <c r="B86" s="21"/>
       <c r="C86" s="5"/>
       <c r="D86" s="5"/>
       <c r="E86" s="5"/>
@@ -2147,7 +2119,7 @@
     </row>
     <row r="87" spans="1:9" ht="34.5" customHeight="1">
       <c r="A87" s="12"/>
-      <c r="B87" s="26"/>
+      <c r="B87" s="21"/>
       <c r="C87" s="5"/>
       <c r="D87" s="5"/>
       <c r="E87" s="5"/>
@@ -2158,7 +2130,7 @@
     </row>
     <row r="88" spans="1:9" ht="34.5" customHeight="1">
       <c r="A88" s="12"/>
-      <c r="B88" s="26"/>
+      <c r="B88" s="21"/>
       <c r="C88" s="5"/>
       <c r="D88" s="5"/>
       <c r="E88" s="5"/>
@@ -2169,7 +2141,7 @@
     </row>
     <row r="89" spans="1:9" ht="34.5" customHeight="1">
       <c r="A89" s="12"/>
-      <c r="B89" s="26"/>
+      <c r="B89" s="21"/>
       <c r="C89" s="5"/>
       <c r="D89" s="5"/>
       <c r="E89" s="5"/>
@@ -2180,7 +2152,7 @@
     </row>
     <row r="90" spans="1:9" ht="34.5" customHeight="1">
       <c r="A90" s="12"/>
-      <c r="B90" s="26"/>
+      <c r="B90" s="21"/>
       <c r="C90" s="5"/>
       <c r="D90" s="5"/>
       <c r="E90" s="5"/>
@@ -2191,7 +2163,7 @@
     </row>
     <row r="91" spans="1:9" ht="34.5" customHeight="1">
       <c r="A91" s="12"/>
-      <c r="B91" s="26"/>
+      <c r="B91" s="21"/>
       <c r="C91" s="5"/>
       <c r="D91" s="5"/>
       <c r="E91" s="5"/>
@@ -2202,7 +2174,7 @@
     </row>
     <row r="92" spans="1:9" ht="34.5" customHeight="1">
       <c r="A92" s="12"/>
-      <c r="B92" s="26"/>
+      <c r="B92" s="21"/>
       <c r="C92" s="5"/>
       <c r="D92" s="5"/>
       <c r="E92" s="5"/>
@@ -2213,7 +2185,7 @@
     </row>
     <row r="93" spans="1:9" ht="34.5" customHeight="1">
       <c r="A93" s="12"/>
-      <c r="B93" s="26"/>
+      <c r="B93" s="21"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
@@ -2224,7 +2196,7 @@
     </row>
     <row r="94" spans="1:9" ht="34.5" customHeight="1">
       <c r="A94" s="12"/>
-      <c r="B94" s="26"/>
+      <c r="B94" s="21"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
       <c r="E94" s="5"/>
@@ -2235,7 +2207,7 @@
     </row>
     <row r="95" spans="1:9" ht="34.5" customHeight="1">
       <c r="A95" s="12"/>
-      <c r="B95" s="26"/>
+      <c r="B95" s="21"/>
       <c r="C95" s="5"/>
       <c r="D95" s="5"/>
       <c r="E95" s="5"/>
@@ -2246,7 +2218,7 @@
     </row>
     <row r="96" spans="1:9" ht="34.5" customHeight="1">
       <c r="A96" s="12"/>
-      <c r="B96" s="26"/>
+      <c r="B96" s="21"/>
       <c r="C96" s="5"/>
       <c r="D96" s="5"/>
       <c r="E96" s="5"/>
@@ -2257,7 +2229,7 @@
     </row>
     <row r="97" spans="1:9" ht="34.5" customHeight="1">
       <c r="A97" s="12"/>
-      <c r="B97" s="26"/>
+      <c r="B97" s="21"/>
       <c r="C97" s="5"/>
       <c r="D97" s="5"/>
       <c r="E97" s="5"/>
@@ -2268,7 +2240,7 @@
     </row>
     <row r="98" spans="1:9" ht="34.5" customHeight="1">
       <c r="A98" s="12"/>
-      <c r="B98" s="26"/>
+      <c r="B98" s="21"/>
       <c r="C98" s="5"/>
       <c r="D98" s="5"/>
       <c r="E98" s="5"/>
@@ -2279,7 +2251,7 @@
     </row>
     <row r="99" spans="1:9" ht="34.5" customHeight="1">
       <c r="A99" s="12"/>
-      <c r="B99" s="26"/>
+      <c r="B99" s="21"/>
       <c r="C99" s="5"/>
       <c r="D99" s="5"/>
       <c r="E99" s="5"/>
@@ -2290,7 +2262,7 @@
     </row>
     <row r="100" spans="1:9" ht="34.5" customHeight="1">
       <c r="A100" s="12"/>
-      <c r="B100" s="26"/>
+      <c r="B100" s="21"/>
       <c r="C100" s="5"/>
       <c r="D100" s="5"/>
       <c r="E100" s="5"/>
@@ -2301,7 +2273,7 @@
     </row>
     <row r="101" spans="1:9" ht="34.5" customHeight="1">
       <c r="A101" s="12"/>
-      <c r="B101" s="26"/>
+      <c r="B101" s="21"/>
       <c r="C101" s="5"/>
       <c r="D101" s="5"/>
       <c r="E101" s="5"/>
@@ -2312,7 +2284,7 @@
     </row>
     <row r="102" spans="1:9" ht="34.5" customHeight="1">
       <c r="A102" s="12"/>
-      <c r="B102" s="26"/>
+      <c r="B102" s="21"/>
       <c r="C102" s="5"/>
       <c r="D102" s="5"/>
       <c r="E102" s="5"/>
@@ -2323,7 +2295,7 @@
     </row>
     <row r="103" spans="1:9" ht="34.5" customHeight="1">
       <c r="A103" s="12"/>
-      <c r="B103" s="26"/>
+      <c r="B103" s="21"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
       <c r="E103" s="5"/>
@@ -2334,7 +2306,7 @@
     </row>
     <row r="104" spans="1:9" ht="34.5" customHeight="1">
       <c r="A104" s="12"/>
-      <c r="B104" s="26"/>
+      <c r="B104" s="21"/>
       <c r="C104" s="5"/>
       <c r="D104" s="5"/>
       <c r="E104" s="5"/>
@@ -2345,7 +2317,7 @@
     </row>
     <row r="105" spans="1:9" ht="34.5" customHeight="1">
       <c r="A105" s="12"/>
-      <c r="B105" s="26"/>
+      <c r="B105" s="21"/>
       <c r="C105" s="5"/>
       <c r="D105" s="5"/>
       <c r="E105" s="5"/>
@@ -2356,7 +2328,7 @@
     </row>
     <row r="106" spans="1:9" ht="34.5" customHeight="1">
       <c r="A106" s="12"/>
-      <c r="B106" s="26"/>
+      <c r="B106" s="21"/>
       <c r="C106" s="5"/>
       <c r="D106" s="5"/>
       <c r="E106" s="5"/>
@@ -2367,7 +2339,7 @@
     </row>
     <row r="107" spans="1:9" ht="34.5" customHeight="1">
       <c r="A107" s="12"/>
-      <c r="B107" s="26"/>
+      <c r="B107" s="21"/>
       <c r="C107" s="5"/>
       <c r="D107" s="5"/>
       <c r="E107" s="5"/>
@@ -2378,7 +2350,7 @@
     </row>
     <row r="108" spans="1:9" ht="34.5" customHeight="1">
       <c r="A108" s="12"/>
-      <c r="B108" s="26"/>
+      <c r="B108" s="21"/>
       <c r="C108" s="5"/>
       <c r="D108" s="5"/>
       <c r="E108" s="5"/>
@@ -2389,7 +2361,7 @@
     </row>
     <row r="109" spans="1:9" ht="34.5" customHeight="1">
       <c r="A109" s="12"/>
-      <c r="B109" s="26"/>
+      <c r="B109" s="21"/>
       <c r="C109" s="5"/>
       <c r="D109" s="5"/>
       <c r="E109" s="5"/>
@@ -2400,7 +2372,7 @@
     </row>
     <row r="110" spans="1:9" ht="34.5" customHeight="1">
       <c r="A110" s="12"/>
-      <c r="B110" s="26"/>
+      <c r="B110" s="21"/>
       <c r="C110" s="5"/>
       <c r="D110" s="5"/>
       <c r="E110" s="5"/>
@@ -2411,7 +2383,7 @@
     </row>
     <row r="111" spans="1:9" ht="34.5" customHeight="1">
       <c r="A111" s="12"/>
-      <c r="B111" s="26"/>
+      <c r="B111" s="21"/>
       <c r="C111" s="5"/>
       <c r="D111" s="5"/>
       <c r="E111" s="5"/>
@@ -2422,7 +2394,7 @@
     </row>
     <row r="112" spans="1:9" ht="34.5" customHeight="1">
       <c r="A112" s="12"/>
-      <c r="B112" s="26"/>
+      <c r="B112" s="21"/>
       <c r="C112" s="5"/>
       <c r="D112" s="5"/>
       <c r="E112" s="5"/>
@@ -2433,7 +2405,7 @@
     </row>
     <row r="113" spans="1:9" ht="34.5" customHeight="1">
       <c r="A113" s="12"/>
-      <c r="B113" s="26"/>
+      <c r="B113" s="21"/>
       <c r="C113" s="5"/>
       <c r="D113" s="5"/>
       <c r="E113" s="5"/>
@@ -2444,7 +2416,7 @@
     </row>
     <row r="114" spans="1:9" ht="34.5" customHeight="1">
       <c r="A114" s="12"/>
-      <c r="B114" s="26"/>
+      <c r="B114" s="21"/>
       <c r="C114" s="5"/>
       <c r="D114" s="5"/>
       <c r="E114" s="5"/>
@@ -2455,7 +2427,7 @@
     </row>
     <row r="115" spans="1:9" ht="34.5" customHeight="1">
       <c r="A115" s="12"/>
-      <c r="B115" s="26"/>
+      <c r="B115" s="21"/>
       <c r="C115" s="5"/>
       <c r="D115" s="5"/>
       <c r="E115" s="5"/>
@@ -2466,7 +2438,7 @@
     </row>
     <row r="116" spans="1:9" ht="34.5" customHeight="1">
       <c r="A116" s="12"/>
-      <c r="B116" s="26"/>
+      <c r="B116" s="21"/>
       <c r="C116" s="5"/>
       <c r="D116" s="5"/>
       <c r="E116" s="5"/>
@@ -2477,7 +2449,7 @@
     </row>
     <row r="117" spans="1:9" ht="34.5" customHeight="1">
       <c r="A117" s="12"/>
-      <c r="B117" s="26"/>
+      <c r="B117" s="21"/>
       <c r="C117" s="5"/>
       <c r="D117" s="5"/>
       <c r="E117" s="5"/>
@@ -2488,7 +2460,7 @@
     </row>
     <row r="118" spans="1:9" ht="34.5" customHeight="1">
       <c r="A118" s="12"/>
-      <c r="B118" s="26"/>
+      <c r="B118" s="21"/>
       <c r="C118" s="5"/>
       <c r="D118" s="5"/>
       <c r="E118" s="5"/>
@@ -2499,7 +2471,7 @@
     </row>
     <row r="119" spans="1:9" ht="34.5" customHeight="1">
       <c r="A119" s="12"/>
-      <c r="B119" s="26"/>
+      <c r="B119" s="21"/>
       <c r="C119" s="5"/>
       <c r="D119" s="5"/>
       <c r="E119" s="5"/>
@@ -2510,7 +2482,7 @@
     </row>
     <row r="120" spans="1:9" ht="34.5" customHeight="1">
       <c r="A120" s="12"/>
-      <c r="B120" s="26"/>
+      <c r="B120" s="21"/>
       <c r="C120" s="5"/>
       <c r="D120" s="5"/>
       <c r="E120" s="5"/>
@@ -2521,7 +2493,7 @@
     </row>
     <row r="121" spans="1:9" ht="34.5" customHeight="1">
       <c r="A121" s="12"/>
-      <c r="B121" s="26"/>
+      <c r="B121" s="21"/>
       <c r="C121" s="5"/>
       <c r="D121" s="5"/>
       <c r="E121" s="5"/>
@@ -2532,7 +2504,7 @@
     </row>
     <row r="122" spans="1:9" ht="34.5" customHeight="1">
       <c r="A122" s="12"/>
-      <c r="B122" s="26"/>
+      <c r="B122" s="21"/>
       <c r="C122" s="5"/>
       <c r="D122" s="5"/>
       <c r="E122" s="5"/>
@@ -2543,7 +2515,7 @@
     </row>
     <row r="123" spans="1:9" ht="34.5" customHeight="1">
       <c r="A123" s="12"/>
-      <c r="B123" s="26"/>
+      <c r="B123" s="21"/>
       <c r="C123" s="5"/>
       <c r="D123" s="5"/>
       <c r="E123" s="5"/>
@@ -2554,7 +2526,7 @@
     </row>
     <row r="124" spans="1:9" ht="34.5" customHeight="1">
       <c r="A124" s="12"/>
-      <c r="B124" s="26"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="5"/>
       <c r="D124" s="5"/>
       <c r="E124" s="5"/>
@@ -2565,7 +2537,7 @@
     </row>
     <row r="125" spans="1:9" ht="34.5" customHeight="1">
       <c r="A125" s="12"/>
-      <c r="B125" s="26"/>
+      <c r="B125" s="21"/>
       <c r="C125" s="5"/>
       <c r="D125" s="5"/>
       <c r="E125" s="5"/>
@@ -2576,7 +2548,7 @@
     </row>
     <row r="126" spans="1:9" ht="34.5" customHeight="1">
       <c r="A126" s="12"/>
-      <c r="B126" s="26"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="5"/>
       <c r="D126" s="5"/>
       <c r="E126" s="5"/>
@@ -2587,7 +2559,7 @@
     </row>
     <row r="127" spans="1:9" ht="34.5" customHeight="1">
       <c r="A127" s="12"/>
-      <c r="B127" s="26"/>
+      <c r="B127" s="21"/>
       <c r="C127" s="5"/>
       <c r="D127" s="5"/>
       <c r="E127" s="5"/>
@@ -2598,7 +2570,7 @@
     </row>
     <row r="128" spans="1:9" ht="34.5" customHeight="1">
       <c r="A128" s="12"/>
-      <c r="B128" s="26"/>
+      <c r="B128" s="21"/>
       <c r="C128" s="5"/>
       <c r="D128" s="5"/>
       <c r="E128" s="5"/>
@@ -2609,7 +2581,7 @@
     </row>
     <row r="129" spans="1:9" ht="34.5" customHeight="1">
       <c r="A129" s="12"/>
-      <c r="B129" s="26"/>
+      <c r="B129" s="21"/>
       <c r="C129" s="5"/>
       <c r="D129" s="5"/>
       <c r="E129" s="5"/>
@@ -2620,7 +2592,7 @@
     </row>
     <row r="130" spans="1:9" ht="34.5" customHeight="1">
       <c r="A130" s="12"/>
-      <c r="B130" s="26"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="5"/>
       <c r="D130" s="5"/>
       <c r="E130" s="5"/>
@@ -2631,7 +2603,7 @@
     </row>
     <row r="131" spans="1:9" ht="34.5" customHeight="1">
       <c r="A131" s="12"/>
-      <c r="B131" s="26"/>
+      <c r="B131" s="21"/>
       <c r="C131" s="5"/>
       <c r="D131" s="5"/>
       <c r="E131" s="5"/>
@@ -2642,7 +2614,7 @@
     </row>
     <row r="132" spans="1:9" ht="34.5" customHeight="1">
       <c r="A132" s="12"/>
-      <c r="B132" s="26"/>
+      <c r="B132" s="21"/>
       <c r="C132" s="5"/>
       <c r="D132" s="5"/>
       <c r="E132" s="5"/>
@@ -2653,7 +2625,7 @@
     </row>
     <row r="133" spans="1:9" ht="34.5" customHeight="1">
       <c r="A133" s="12"/>
-      <c r="B133" s="26"/>
+      <c r="B133" s="21"/>
       <c r="C133" s="5"/>
       <c r="D133" s="5"/>
       <c r="E133" s="5"/>
@@ -2664,7 +2636,7 @@
     </row>
     <row r="134" spans="1:9" ht="34.5" customHeight="1">
       <c r="A134" s="12"/>
-      <c r="B134" s="26"/>
+      <c r="B134" s="21"/>
       <c r="C134" s="5"/>
       <c r="D134" s="5"/>
       <c r="E134" s="5"/>
@@ -2675,7 +2647,7 @@
     </row>
     <row r="135" spans="1:9" ht="34.5" customHeight="1">
       <c r="A135" s="12"/>
-      <c r="B135" s="26"/>
+      <c r="B135" s="21"/>
       <c r="C135" s="5"/>
       <c r="D135" s="5"/>
       <c r="E135" s="5"/>
@@ -2686,7 +2658,7 @@
     </row>
     <row r="136" spans="1:9" ht="34.5" customHeight="1">
       <c r="A136" s="12"/>
-      <c r="B136" s="26"/>
+      <c r="B136" s="21"/>
       <c r="C136" s="5"/>
       <c r="D136" s="5"/>
       <c r="E136" s="5"/>
@@ -2697,7 +2669,7 @@
     </row>
     <row r="137" spans="1:9" ht="34.5" customHeight="1">
       <c r="A137" s="12"/>
-      <c r="B137" s="26"/>
+      <c r="B137" s="21"/>
       <c r="C137" s="5"/>
       <c r="D137" s="5"/>
       <c r="E137" s="5"/>
@@ -2708,7 +2680,7 @@
     </row>
     <row r="138" spans="1:9" ht="34.5" customHeight="1">
       <c r="A138" s="12"/>
-      <c r="B138" s="26"/>
+      <c r="B138" s="21"/>
       <c r="C138" s="5"/>
       <c r="D138" s="5"/>
       <c r="E138" s="5"/>
@@ -2719,7 +2691,7 @@
     </row>
     <row r="139" spans="1:9" ht="34.5" customHeight="1">
       <c r="A139" s="12"/>
-      <c r="B139" s="26"/>
+      <c r="B139" s="21"/>
       <c r="C139" s="5"/>
       <c r="D139" s="5"/>
       <c r="E139" s="5"/>
@@ -2730,7 +2702,7 @@
     </row>
     <row r="140" spans="1:9" ht="34.5" customHeight="1">
       <c r="A140" s="12"/>
-      <c r="B140" s="26"/>
+      <c r="B140" s="21"/>
       <c r="C140" s="5"/>
       <c r="D140" s="5"/>
       <c r="E140" s="5"/>
@@ -2741,7 +2713,7 @@
     </row>
     <row r="141" spans="1:9" ht="34.5" customHeight="1">
       <c r="A141" s="12"/>
-      <c r="B141" s="26"/>
+      <c r="B141" s="21"/>
       <c r="C141" s="5"/>
       <c r="D141" s="5"/>
       <c r="E141" s="5"/>
@@ -2752,7 +2724,7 @@
     </row>
     <row r="142" spans="1:9" ht="34.5" customHeight="1">
       <c r="A142" s="12"/>
-      <c r="B142" s="26"/>
+      <c r="B142" s="21"/>
       <c r="C142" s="5"/>
       <c r="D142" s="5"/>
       <c r="E142" s="5"/>
@@ -2763,7 +2735,7 @@
     </row>
     <row r="143" spans="1:9" ht="34.5" customHeight="1">
       <c r="A143" s="12"/>
-      <c r="B143" s="26"/>
+      <c r="B143" s="21"/>
       <c r="C143" s="5"/>
       <c r="D143" s="5"/>
       <c r="E143" s="5"/>
@@ -2774,7 +2746,7 @@
     </row>
     <row r="144" spans="1:9" ht="34.5" customHeight="1">
       <c r="A144" s="12"/>
-      <c r="B144" s="26"/>
+      <c r="B144" s="21"/>
       <c r="C144" s="5"/>
       <c r="D144" s="5"/>
       <c r="E144" s="5"/>
@@ -2785,7 +2757,7 @@
     </row>
     <row r="145" spans="1:9" ht="34.5" customHeight="1">
       <c r="A145" s="12"/>
-      <c r="B145" s="26"/>
+      <c r="B145" s="21"/>
       <c r="C145" s="5"/>
       <c r="D145" s="5"/>
       <c r="E145" s="5"/>
@@ -2796,7 +2768,7 @@
     </row>
     <row r="146" spans="1:9" ht="34.5" customHeight="1">
       <c r="A146" s="12"/>
-      <c r="B146" s="26"/>
+      <c r="B146" s="21"/>
       <c r="C146" s="5"/>
       <c r="D146" s="5"/>
       <c r="E146" s="5"/>
@@ -2807,7 +2779,7 @@
     </row>
     <row r="147" spans="1:9" ht="34.5" customHeight="1">
       <c r="A147" s="12"/>
-      <c r="B147" s="26"/>
+      <c r="B147" s="21"/>
       <c r="C147" s="5"/>
       <c r="D147" s="5"/>
       <c r="E147" s="5"/>
@@ -2818,7 +2790,7 @@
     </row>
     <row r="148" spans="1:9" ht="34.5" customHeight="1">
       <c r="A148" s="12"/>
-      <c r="B148" s="26"/>
+      <c r="B148" s="21"/>
       <c r="C148" s="5"/>
       <c r="D148" s="5"/>
       <c r="E148" s="5"/>
@@ -2829,7 +2801,7 @@
     </row>
     <row r="149" spans="1:9" ht="34.5" customHeight="1">
       <c r="A149" s="12"/>
-      <c r="B149" s="26"/>
+      <c r="B149" s="21"/>
       <c r="C149" s="5"/>
       <c r="D149" s="5"/>
       <c r="E149" s="5"/>
@@ -2840,7 +2812,7 @@
     </row>
     <row r="150" spans="1:9" ht="34.5" customHeight="1">
       <c r="A150" s="12"/>
-      <c r="B150" s="26"/>
+      <c r="B150" s="21"/>
       <c r="C150" s="5"/>
       <c r="D150" s="5"/>
       <c r="E150" s="5"/>
@@ -2851,7 +2823,7 @@
     </row>
     <row r="151" spans="1:9" ht="34.5" customHeight="1">
       <c r="A151" s="12"/>
-      <c r="B151" s="26"/>
+      <c r="B151" s="21"/>
       <c r="C151" s="5"/>
       <c r="D151" s="5"/>
       <c r="E151" s="5"/>
@@ -2862,7 +2834,7 @@
     </row>
     <row r="152" spans="1:9" ht="34.5" customHeight="1">
       <c r="A152" s="12"/>
-      <c r="B152" s="26"/>
+      <c r="B152" s="21"/>
       <c r="C152" s="5"/>
       <c r="D152" s="5"/>
       <c r="E152" s="5"/>
@@ -2873,7 +2845,7 @@
     </row>
     <row r="153" spans="1:9" ht="34.5" customHeight="1">
       <c r="A153" s="12"/>
-      <c r="B153" s="26"/>
+      <c r="B153" s="21"/>
       <c r="C153" s="5"/>
       <c r="D153" s="5"/>
       <c r="E153" s="5"/>
@@ -2884,7 +2856,7 @@
     </row>
     <row r="154" spans="1:9" ht="34.5" customHeight="1">
       <c r="A154" s="12"/>
-      <c r="B154" s="26"/>
+      <c r="B154" s="21"/>
       <c r="C154" s="5"/>
       <c r="D154" s="5"/>
       <c r="E154" s="5"/>
@@ -2895,7 +2867,7 @@
     </row>
     <row r="155" spans="1:9" ht="34.5" customHeight="1">
       <c r="A155" s="12"/>
-      <c r="B155" s="26"/>
+      <c r="B155" s="21"/>
       <c r="C155" s="5"/>
       <c r="D155" s="5"/>
       <c r="E155" s="5"/>
@@ -2906,7 +2878,7 @@
     </row>
     <row r="156" spans="1:9" ht="34.5" customHeight="1">
       <c r="A156" s="12"/>
-      <c r="B156" s="26"/>
+      <c r="B156" s="21"/>
       <c r="C156" s="5"/>
       <c r="D156" s="5"/>
       <c r="E156" s="5"/>
@@ -2917,7 +2889,7 @@
     </row>
     <row r="157" spans="1:9" ht="34.5" customHeight="1">
       <c r="A157" s="12"/>
-      <c r="B157" s="26"/>
+      <c r="B157" s="21"/>
       <c r="C157" s="5"/>
       <c r="D157" s="5"/>
       <c r="E157" s="5"/>
@@ -4817,7 +4789,7 @@
       <c r="I473" s="6"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4831,7 +4803,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -4844,7 +4816,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData/>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>